--- a/src/assets/hours/UTN.xlsx
+++ b/src/assets/hours/UTN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Pochettino\source\repos\Angular-UTN-Monitor\src\assets\hours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5811AF9D-075F-4B79-AE55-9024A8B2C091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FA0310-F1B1-40A7-A460-789CA5EF9166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Horarios" sheetId="1" r:id="rId1"/>
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/assets/hours/UTN.xlsx
+++ b/src/assets/hours/UTN.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Pochettino\source\repos\Angular-UTN-Monitor\src\assets\hours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2397E7C-D3B1-4DE7-8E9D-C63DDF1DA373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0DE7FA-C696-4EEB-A897-2DDFEC694DE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Horarios" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Horarios!$A$1:$H$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Horarios!$A$1:$H$148</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="262">
   <si>
     <t>Carrera</t>
   </si>
@@ -709,9 +709,6 @@
     <t>Introducción al turismo</t>
   </si>
   <si>
-    <t>00:25</t>
-  </si>
-  <si>
     <t>21:30</t>
   </si>
   <si>
@@ -721,7 +718,97 @@
     <t>23:59</t>
   </si>
   <si>
-    <t>00:00</t>
+    <t>José Sartor - Juan Pablo Suligoy</t>
+  </si>
+  <si>
+    <t>Héctor Martín - Franco Cabás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conocimiento de materiales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germán Leschiutta - Carlos Vitti </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrotécnia </t>
+  </si>
+  <si>
+    <t>Termodinámica técnica</t>
+  </si>
+  <si>
+    <t>Mauro Yoris - Brian Moschen</t>
+  </si>
+  <si>
+    <t>Mediciones electricas</t>
+  </si>
+  <si>
+    <t>Claudio Cendra - Cristian Mancuello</t>
+  </si>
+  <si>
+    <t>Proyecto Final</t>
+  </si>
+  <si>
+    <t>Daniel Anton - Gabriel Cólman</t>
+  </si>
+  <si>
+    <t>Máquinas Agricolas</t>
+  </si>
+  <si>
+    <t>Aula 13</t>
+  </si>
+  <si>
+    <t>Hidráulica y Neumática</t>
+  </si>
+  <si>
+    <t>Robinsin Nóbile</t>
+  </si>
+  <si>
+    <t>Agricultura familiar y agroecología</t>
+  </si>
+  <si>
+    <t>Saul Agretti</t>
+  </si>
+  <si>
+    <t>Administración de costos</t>
+  </si>
+  <si>
+    <t>Enrique Ruddi - Alberto Fain</t>
+  </si>
+  <si>
+    <t>Economía de la empresa agraria</t>
+  </si>
+  <si>
+    <t>Santiago Arnulphi - Marianela Blanco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estadística </t>
+  </si>
+  <si>
+    <t>Comercialización II</t>
+  </si>
+  <si>
+    <t>Alejandro Stechina</t>
+  </si>
+  <si>
+    <t>Seminario Final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Química </t>
+  </si>
+  <si>
+    <t>Sofía Pezzi</t>
+  </si>
+  <si>
+    <t>Patricia Lalli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selección y capacitación del personal </t>
+  </si>
+  <si>
+    <t>Elisa Voegeli</t>
+  </si>
+  <si>
+    <t>20:00</t>
   </si>
 </sst>
 </file>
@@ -924,7 +1011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -962,6 +1049,15 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1181,10 +1277,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2389,7 +2485,7 @@
         <v>57</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>219</v>
@@ -2626,7 +2722,7 @@
         <v>206</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F60" s="28" t="s">
         <v>161</v>
@@ -2722,7 +2818,7 @@
         <v>38</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F64" s="33" t="s">
         <v>114</v>
@@ -2734,152 +2830,148 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65" s="15">
-        <v>44054</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C66" s="15">
-        <v>44055</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>44</v>
+    <row r="65" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" s="7" t="s">
+      <c r="A67" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="7"/>
+      <c r="C67" s="9"/>
       <c r="D67" s="7" t="s">
         <v>200</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" s="7" t="s">
+      <c r="A68" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="7"/>
+      <c r="C68" s="9"/>
       <c r="D68" s="7" t="s">
         <v>200</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>75</v>
+        <v>110</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B69" s="9" t="s">
+      <c r="A69" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="9"/>
+      <c r="C69" s="7"/>
       <c r="D69" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>96</v>
+        <v>55</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" s="9" t="s">
+      <c r="A70" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="9"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2894,136 +2986,136 @@
         <v>201</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" s="7" t="s">
+      <c r="A72" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="7"/>
+      <c r="C72" s="29"/>
       <c r="D72" s="7" t="s">
         <v>201</v>
       </c>
       <c r="E72" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G72" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G73" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H73" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E74" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F72" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="7" t="s">
+      <c r="F74" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G74" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H74" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F73" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B74" s="29" t="s">
+      <c r="C75" s="8"/>
+      <c r="D75" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F75" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="29"/>
-      <c r="D74" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E74" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F74" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G74" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="H74" s="29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B75" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" s="29"/>
-      <c r="D75" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="E75" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F75" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="G75" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="H75" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B76" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30" t="s">
+      <c r="C76" s="8"/>
+      <c r="D76" s="8" t="s">
         <v>203</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G76" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="H76" s="30" t="s">
-        <v>81</v>
+        <v>107</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3034,20 +3126,20 @@
         <v>34</v>
       </c>
       <c r="C77" s="8"/>
-      <c r="D77" s="8" t="s">
-        <v>203</v>
+      <c r="D77" s="16" t="s">
+        <v>204</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F77" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3059,19 +3151,19 @@
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E78" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F78" s="25" t="s">
-        <v>107</v>
-      </c>
       <c r="G78" s="8" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3082,20 +3174,20 @@
         <v>34</v>
       </c>
       <c r="C79" s="8"/>
-      <c r="D79" s="16" t="s">
+      <c r="D79" s="8" t="s">
         <v>204</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3107,7 +3199,7 @@
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E80" s="25" t="s">
         <v>55</v>
@@ -3116,10 +3208,10 @@
         <v>57</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3130,8 +3222,8 @@
         <v>34</v>
       </c>
       <c r="C81" s="8"/>
-      <c r="D81" s="8" t="s">
-        <v>204</v>
+      <c r="D81" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="E81" s="25" t="s">
         <v>57</v>
@@ -3140,10 +3232,10 @@
         <v>107</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3155,223 +3247,225 @@
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E82" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E83" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F82" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B83" s="8" t="s">
+      <c r="F83" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="E83" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F83" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B84" s="8" t="s">
+      <c r="C84" s="7"/>
+      <c r="D84" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="14"/>
+      <c r="C85" s="9"/>
       <c r="D85" s="14" t="s">
         <v>205</v>
       </c>
       <c r="E85" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F87" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E88" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F88" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F85" s="25" t="s">
+      <c r="F89" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G85" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" s="7" t="s">
+      <c r="G89" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F86" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B87" s="9" t="s">
+      <c r="C90" s="15">
+        <v>44056</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F90" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="E87" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F87" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F88" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E89" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F89" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H89" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F90" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20" t="s">
-        <v>38</v>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="E91" s="25" t="s">
         <v>55</v>
@@ -3379,37 +3473,35 @@
       <c r="F91" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G91" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H91" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B92" s="12" t="s">
+      <c r="G91" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C92" s="15">
-        <v>44056</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>38</v>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F92" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H92" s="12" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3420,44 +3512,44 @@
         <v>34</v>
       </c>
       <c r="C93" s="7"/>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="E93" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F93" s="25" t="s">
-        <v>56</v>
+      <c r="E93" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>107</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C94" s="7"/>
+      <c r="A94" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="9"/>
       <c r="D94" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F94" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>69</v>
+        <v>200</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3465,71 +3557,71 @@
         <v>6</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C95" s="7"/>
-      <c r="D95" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="E95" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F95" s="24" t="s">
-        <v>107</v>
+      <c r="D95" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B96" s="9" t="s">
+      <c r="A96" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C96" s="9"/>
+      <c r="C96" s="7"/>
       <c r="D96" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E96" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F96" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>152</v>
+      <c r="E96" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" s="7" t="s">
+      <c r="A97" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>172</v>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3540,92 +3632,92 @@
         <v>47</v>
       </c>
       <c r="C98" s="7"/>
-      <c r="D98" s="7" t="s">
-        <v>200</v>
+      <c r="D98" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B99" s="11" t="s">
+      <c r="A99" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>192</v>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" s="7" t="s">
+      <c r="A100" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>175</v>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" s="7" t="s">
+      <c r="A101" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E101" s="7" t="s">
+      <c r="C101" s="8"/>
+      <c r="D101" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E101" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F101" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>177</v>
+      <c r="F101" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3637,7 +3729,7 @@
       </c>
       <c r="C102" s="8"/>
       <c r="D102" s="8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>55</v>
@@ -3646,157 +3738,157 @@
         <v>66</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B103" s="8" t="s">
+      <c r="A103" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E103" s="8" t="s">
+      <c r="C103" s="7"/>
+      <c r="D103" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F106" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G106" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H106" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E108" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F103" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="H103" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H104" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F106" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G106" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="H106" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="H107" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E108" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F108" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G108" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H108" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F108" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>6</v>
       </c>
@@ -3804,20 +3896,20 @@
         <v>47</v>
       </c>
       <c r="C109" s="7"/>
-      <c r="D109" s="14" t="s">
-        <v>205</v>
+      <c r="D109" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3829,67 +3921,67 @@
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B111" s="7" t="s">
+      <c r="A111" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F111" s="7" t="s">
+      <c r="C111" s="8"/>
+      <c r="D111" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F111" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G111" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>117</v>
+      <c r="G111" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B112" s="7" t="s">
+      <c r="A112" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F112" s="7" t="s">
+      <c r="C112" s="8"/>
+      <c r="D112" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F112" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G112" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>178</v>
+      <c r="G112" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3901,198 +3993,871 @@
       </c>
       <c r="C113" s="8"/>
       <c r="D113" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E118" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119" s="37"/>
+      <c r="D119" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E119" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F119" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120" s="37"/>
+      <c r="D120" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F120" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121" s="37"/>
+      <c r="D121" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E121" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F121" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122" s="37"/>
+      <c r="D122" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F122" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" s="37"/>
+      <c r="D123" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E123" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F123" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124" s="37"/>
+      <c r="D124" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E124" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F124" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="37"/>
+      <c r="D125" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E125" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126" s="37"/>
+      <c r="D126" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E126" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F126" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" s="37"/>
+      <c r="D127" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E127" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F127" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="37"/>
+      <c r="D128" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F128" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129" s="37"/>
+      <c r="D129" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F129" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130" s="37"/>
+      <c r="D130" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F130" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E131" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F131" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E132" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F132" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F133" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E113" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F113" s="8" t="s">
+      <c r="E134" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F134" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E135" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F135" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="G113" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H113" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
+      <c r="G135" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8" t="s">
+      <c r="B136" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E114" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H114" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
+      <c r="E136" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F136" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="H136" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B115" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8" t="s">
+      <c r="B137" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E137" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F137" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E138" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F138" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="H138" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E115" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F115" s="8" t="s">
+      <c r="E139" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F139" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G115" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="H115" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11" t="s">
+      <c r="G139" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="H139" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F140" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E141" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F141" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E142" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F142" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E143" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F143" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G143" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H143" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E144" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="F144" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H144" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B145" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145" s="39"/>
+      <c r="D145" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E116" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G116" s="11" t="s">
+      <c r="E145" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F145" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G145" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H145" s="40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B146" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146" s="39"/>
+      <c r="D146" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E146" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F146" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G146" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="H116" s="11" t="s">
+      <c r="H146" s="40" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="H119" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B120" s="8" t="s">
+    <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B147" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C120" s="8"/>
-      <c r="D120" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="E120" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="F120" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="H120" s="8" t="s">
-        <v>84</v>
+      <c r="C147" s="42"/>
+      <c r="D147" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E147" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="F147" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="G147" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H147" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B148" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C148" s="42"/>
+      <c r="D148" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E148" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F148" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G148" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H148" s="43" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H119" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:H148" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="Lunes"/>
+        <filter val="Martes"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H119">
-      <sortCondition ref="B1:B119"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H117">
+      <sortCondition ref="B1:B117"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/src/assets/hours/UTN.xlsx
+++ b/src/assets/hours/UTN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Pochettino\source\repos\Angular-UTN-Monitor\src\assets\hours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0DE7FA-C696-4EEB-A897-2DDFEC694DE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099B1E4C-5403-43C8-A584-CF5A102AFCA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1011,7 +1011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1058,6 +1058,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1279,13 +1283,14 @@
   </sheetPr>
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="49"/>
     <col min="5" max="5" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.6640625" bestFit="1" customWidth="1"/>
@@ -1299,7 +1304,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2086,7 +2091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>6</v>
       </c>
@@ -2110,7 +2115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -2134,7 +2139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>6</v>
       </c>
@@ -2158,7 +2163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>6</v>
       </c>
@@ -2182,7 +2187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>6</v>
       </c>
@@ -2206,7 +2211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -2230,7 +2235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>6</v>
       </c>
@@ -2254,7 +2259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>6</v>
       </c>
@@ -2278,7 +2283,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>6</v>
       </c>
@@ -2302,7 +2307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>6</v>
       </c>
@@ -2326,7 +2331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -2350,7 +2355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>60</v>
       </c>
@@ -2374,7 +2379,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>60</v>
       </c>
@@ -2398,7 +2403,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>60</v>
       </c>
@@ -2422,7 +2427,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>60</v>
       </c>
@@ -2446,7 +2451,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>60</v>
       </c>
@@ -2470,7 +2475,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>60</v>
       </c>
@@ -2494,7 +2499,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>60</v>
       </c>
@@ -2518,7 +2523,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>60</v>
       </c>
@@ -2542,7 +2547,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>61</v>
       </c>
@@ -2566,7 +2571,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>61</v>
       </c>
@@ -2590,7 +2595,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>61</v>
       </c>
@@ -2614,7 +2619,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>61</v>
       </c>
@@ -2638,7 +2643,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>61</v>
       </c>
@@ -2662,7 +2667,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>61</v>
       </c>
@@ -2686,7 +2691,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>62</v>
       </c>
@@ -2710,7 +2715,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>62</v>
       </c>
@@ -2734,7 +2739,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>162</v>
       </c>
@@ -2758,7 +2763,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>162</v>
       </c>
@@ -2782,7 +2787,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>162</v>
       </c>
@@ -2811,9 +2816,11 @@
         <v>37</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="20"/>
+        <v>54</v>
+      </c>
+      <c r="C64" s="47">
+        <v>44224</v>
+      </c>
       <c r="D64" s="20" t="s">
         <v>38</v>
       </c>
@@ -3406,14 +3413,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B89" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C89" s="20"/>
+      <c r="C89" s="47"/>
       <c r="D89" s="20" t="s">
         <v>38</v>
       </c>
@@ -3430,16 +3437,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C90" s="15">
-        <v>44056</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C90" s="15"/>
       <c r="D90" s="12" t="s">
         <v>38</v>
       </c>
@@ -3816,14 +3821,14 @@
         <v>193</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B106" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C106" s="20"/>
+      <c r="C106" s="47"/>
       <c r="D106" s="20" t="s">
         <v>38</v>
       </c>
@@ -4104,7 +4109,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>6</v>
       </c>
@@ -4128,7 +4133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>6</v>
       </c>
@@ -4152,7 +4157,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>6</v>
       </c>
@@ -4176,7 +4181,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>6</v>
       </c>
@@ -4200,7 +4205,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>6</v>
       </c>
@@ -4224,7 +4229,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>6</v>
       </c>
@@ -4248,7 +4253,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>6</v>
       </c>
@@ -4272,7 +4277,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>6</v>
       </c>
@@ -4296,7 +4301,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>6</v>
       </c>
@@ -4320,7 +4325,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>6</v>
       </c>
@@ -4344,7 +4349,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>6</v>
       </c>
@@ -4368,7 +4373,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>6</v>
       </c>
@@ -4392,7 +4397,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>6</v>
       </c>
@@ -4416,7 +4421,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>60</v>
       </c>
@@ -4440,7 +4445,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>60</v>
       </c>
@@ -4464,7 +4469,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>60</v>
       </c>
@@ -4488,7 +4493,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>60</v>
       </c>
@@ -4512,7 +4517,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>60</v>
       </c>
@@ -4536,7 +4541,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>60</v>
       </c>
@@ -4560,7 +4565,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>60</v>
       </c>
@@ -4584,7 +4589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>60</v>
       </c>
@@ -4608,7 +4613,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>60</v>
       </c>
@@ -4632,7 +4637,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>61</v>
       </c>
@@ -4656,7 +4661,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>61</v>
       </c>
@@ -4680,7 +4685,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>61</v>
       </c>
@@ -4704,7 +4709,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>62</v>
       </c>
@@ -4728,7 +4733,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>62</v>
       </c>
@@ -4752,7 +4757,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="38" t="s">
         <v>162</v>
       </c>
@@ -4776,7 +4781,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="38" t="s">
         <v>162</v>
       </c>
@@ -4807,7 +4812,7 @@
       <c r="B147" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C147" s="42"/>
+      <c r="C147" s="48"/>
       <c r="D147" s="42" t="s">
         <v>38</v>
       </c>
@@ -4831,7 +4836,7 @@
       <c r="B148" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C148" s="42"/>
+      <c r="C148" s="48"/>
       <c r="D148" s="42" t="s">
         <v>38</v>
       </c>
@@ -4850,10 +4855,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H148" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
+    <filterColumn colId="0">
       <filters>
-        <filter val="Lunes"/>
-        <filter val="Martes"/>
+        <filter val="Auditorium"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H117">
